--- a/biology/Médecine/Mouvement_oculaire/Mouvement_oculaire.xlsx
+++ b/biology/Médecine/Mouvement_oculaire/Mouvement_oculaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les mouvements oculaires sont les rotations que les globes oculaires effectuent autour de leurs centres, et qui modifient la direction du regard. Ces mouvements sont provoqués par les muscles oculaires, et font partie intégrante du système visuel. 
 Chez l'humain, leur étude à l'aide des techniques d'oculométrie trouve des applications en psychologie, en psycholinguistique, en neurologie ou en ergonomie.
@@ -526,7 +538,9 @@
           <t>Repérage de la position et des rotations des yeux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On repère la position de l'œil par la ligne de regard. 
 Cette ligne est susceptible de plusieurs définitions, lorsqu'on y regarde de près, mais les divers axes du regard que l'on peut définir diffèrent tous assez peu de l'axe passant par le centre de la pupille et le centre du globe oculaire.
@@ -566,52 +580,250 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mouvements des deux yeux
-Lorsqu'on parle de mouvement oculaire, on distingue les mouvements effectués par un seul œil, dits mouvements de duction, qui ont été décrits au paragraphe précédent et les mouvements simultanés des deux yeux.
+          <t>Mouvements des deux yeux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lorsqu'on parle de mouvement oculaire, on distingue les mouvements effectués par un seul œil, dits mouvements de duction, qui ont été décrits au paragraphe précédent et les mouvements simultanés des deux yeux.
 Les mouvements simultanés des deux yeux sont destinés à permettre la vision binoculaire. Les yeux peuvent se mouvoir soit de manière identique (on parle alors de versions ou de mouvement conjugué), soit de manière symétrique (on parle alors de mouvement de vergence).
-Mouvements volontaires et mouvements réflexes
-Les modifications de la direction de notre regard sont pour la plupart involontaires. 
-Mouvements volontaires
-Les modifications volontaires s'effectuent à l'aide de mouvements très spécifiques appelés saccades.
-Mouvements involontaires
-Pour ce qui est des mouvements réflexes, il convient de distinguer les grands mouvements (réflexes optocinétique et oculo-vestibulaire) des petits mouvements oculaires qui interviennent dans la fixation.
-Grands mouvements
-Il s'agit de mouvements relativement réguliers et lents, qui s'apparentent à une sorte de dérive progressive de la direction du regard.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mouvement_oculaire</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mouvement_oculaire</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Nature des mouvements oculaires</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Mouvements volontaires et mouvements réflexes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les modifications de la direction de notre regard sont pour la plupart involontaires. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mouvement_oculaire</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mouvement_oculaire</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Nature des mouvements oculaires</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mouvements volontaires et mouvements réflexes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Mouvements volontaires</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les modifications volontaires s'effectuent à l'aide de mouvements très spécifiques appelés saccades.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mouvement_oculaire</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mouvement_oculaire</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Nature des mouvements oculaires</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Mouvements volontaires et mouvements réflexes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Mouvements involontaires</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour ce qui est des mouvements réflexes, il convient de distinguer les grands mouvements (réflexes optocinétique et oculo-vestibulaire) des petits mouvements oculaires qui interviennent dans la fixation.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Mouvement_oculaire</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mouvement_oculaire</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Nature des mouvements oculaires</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mouvements volontaires et mouvements réflexes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Grands mouvements</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit de mouvements relativement réguliers et lents, qui s'apparentent à une sorte de dérive progressive de la direction du regard.
 Réflexe optocinétique
 Il s'agit du réflexe qui pousse le regard à suivre un objet en mouvement. C'est un mouvement de dérive lente du regard dont la direction et la vitesse sont ajustées à l'objet à suivre.
 Réflexe oculo-vestibulaire
 Il s'agit d'un mouvement de dérive destiné à compenser les mouvements de la tête, pour maintenir fixe la direction du regard.
-Petits mouvements : fixation
-Lorsque nous nous efforçons de scruter un endroit précis de l'espace, nous fixons la direction de notre regard. Cependant, cet acte volontaire n'empêche pas les yeux d'effectuer des petits mouvements complexes, qui sont de trois types différents : micro-tremblement - microsaccades - dérive.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Mouvement_oculaire</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Mouvement_oculaire</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Nature des mouvements oculaires</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Mouvements volontaires et mouvements réflexes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Petits mouvements : fixation</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lorsque nous nous efforçons de scruter un endroit précis de l'espace, nous fixons la direction de notre regard. Cependant, cet acte volontaire n'empêche pas les yeux d'effectuer des petits mouvements complexes, qui sont de trois types différents : micro-tremblement - microsaccades - dérive.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Mouvement_oculaire</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mouvement_oculaire</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Les lois gouvernant la direction du regard : Donders et Listing</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Ainsi qu'il résulte de la disposition des muscles oculomoteurs, il devrait être possible théoriquement de regarder dans une direction d'une infinité de manières, puisque la cyclotorsion ne modifie pas en principe l'image perçue par les yeux. Ce n'est pourtant pas ce que l'on observe en pratique.
 L'angle de torsion est lié à la direction du regard. C'est la Loi de Donders.
